--- a/Documentation/Scrum/Sprint2Burndown.xlsx
+++ b/Documentation/Scrum/Sprint2Burndown.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Task</t>
   </si>
@@ -135,48 +135,48 @@
     <t>After each Daily Standup each Team Member should review the Burn Down Chart to ensure your Sprint will be delivered on time</t>
   </si>
   <si>
+    <t>Ali Cooper</t>
+  </si>
+  <si>
+    <t>As a dev, I need design documentation to properly implement project code</t>
+  </si>
+  <si>
+    <t>Caleb Ljunggren</t>
+  </si>
+  <si>
+    <t>As a User I would like to view the Gameboard</t>
+  </si>
+  <si>
+    <t>Implement Game View</t>
+  </si>
+  <si>
+    <t>Add User Interacton into Game View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Css </t>
+  </si>
+  <si>
+    <t>As a user I would like to be able to change the game's state to play minesweeper</t>
+  </si>
+  <si>
+    <t>Implemet Game Controller</t>
+  </si>
+  <si>
+    <t>Implement GameManagerService</t>
+  </si>
+  <si>
+    <t>Update Design Report</t>
+  </si>
+  <si>
+    <t>As a dev, I need to test our code to make sure it has been properly implemented.</t>
+  </si>
+  <si>
+    <t>Test code,/check for errors/bugs</t>
+  </si>
+  <si>
     <t>Project Title: Minesweeper
-Release #: 1.0.0
-Sprint #: 1</t>
-  </si>
-  <si>
-    <t>Implement Register Controller</t>
-  </si>
-  <si>
-    <t>Ali Cooper</t>
-  </si>
-  <si>
-    <t>Implement Registration Database integration</t>
-  </si>
-  <si>
-    <t>As a user I need to login in order to play minesweeper</t>
-  </si>
-  <si>
-    <t>Implement Register View with forms</t>
-  </si>
-  <si>
-    <t>Implement Login Controller</t>
-  </si>
-  <si>
-    <t>Implement Login View &amp; Associated Forms</t>
-  </si>
-  <si>
-    <t>As a dev, I need design documentation to properly implement project code</t>
-  </si>
-  <si>
-    <t>Do Site StoryBoard</t>
-  </si>
-  <si>
-    <t>Do ER Diagram</t>
-  </si>
-  <si>
-    <t>Identify Risks</t>
-  </si>
-  <si>
-    <t>Caleb Ljunggren</t>
-  </si>
-  <si>
-    <t>As a User I would like to view the Gameboard</t>
+Release #: 1.1.0
+Sprint #: 2</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1082,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1167,13 +1167,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -1219,7 +1219,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1257,15 +1257,15 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10"/>
       <c r="D6" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
@@ -1323,31 +1323,31 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="7">
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
@@ -1373,18 +1373,18 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="7"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -1399,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
@@ -1419,7 +1419,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="7"/>
       <c r="C10" s="10"/>
@@ -1467,43 +1467,43 @@
         <v>3</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
         <v>0.5</v>
       </c>
-      <c r="G11" s="4">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
         <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
       </c>
       <c r="P11" s="4">
         <v>0</v>
@@ -1511,18 +1511,22 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="D12" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -1543,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="4">
         <v>0</v>
@@ -1561,12 +1565,8 @@
       <c r="A13" s="1"/>
       <c r="B13" s="7"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="4">
         <v>1</v>
       </c>
@@ -1613,47 +1613,47 @@
       <c r="E14" s="12"/>
       <c r="F14" s="4">
         <f>SUM(F4:F13)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G14" s="4">
-        <f>F14-$F$14/10</f>
-        <v>6.3</v>
+        <f t="shared" ref="G14:P14" si="0">F14-$F$14/10</f>
+        <v>13.5</v>
       </c>
       <c r="H14" s="4">
-        <f>G14-$F$14/10</f>
-        <v>5.6</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="I14" s="4">
-        <f>H14-$F$14/10</f>
-        <v>4.8999999999999995</v>
+        <f t="shared" si="0"/>
+        <v>10.5</v>
       </c>
       <c r="J14" s="4">
-        <f>I14-$F$14/10</f>
-        <v>4.1999999999999993</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="K14" s="4">
-        <f>J14-$F$14/10</f>
-        <v>3.4999999999999991</v>
+        <f t="shared" si="0"/>
+        <v>7.5</v>
       </c>
       <c r="L14" s="4">
-        <f>K14-$F$14/10</f>
-        <v>2.7999999999999989</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="M14" s="4">
-        <f>L14-$F$14/10</f>
-        <v>2.0999999999999988</v>
+        <f t="shared" si="0"/>
+        <v>4.5</v>
       </c>
       <c r="N14" s="4">
-        <f>M14-$F$14/10</f>
-        <v>1.3999999999999988</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="O14" s="4">
-        <f>N14-$F$14/10</f>
-        <v>0.69999999999999885</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="P14" s="4">
-        <f>O14-$F$14/10</f>
-        <v>-1.1102230246251565E-15</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1668,47 +1668,47 @@
       <c r="E15" s="12"/>
       <c r="F15" s="4">
         <f>SUM(F4:F13)</f>
+        <v>15</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" ref="G15:P15" si="1">F15 - SUM(G4:G13)</f>
+        <v>14</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G15" s="4">
-        <f>F15 - SUM(G4:G13)</f>
-        <v>5</v>
-      </c>
-      <c r="H15" s="4">
-        <f>G15 - SUM(H4:H13)</f>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I15" s="4">
-        <f>H15 - SUM(I4:I13)</f>
-        <v>2</v>
-      </c>
-      <c r="J15" s="4">
-        <f>I15 - SUM(J4:J13)</f>
-        <v>1</v>
-      </c>
-      <c r="K15" s="4">
-        <f>J15 - SUM(K4:K13)</f>
-        <v>0</v>
-      </c>
       <c r="L15" s="4">
-        <f>K15 - SUM(L4:L13)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="M15" s="4">
-        <f>L15 - SUM(M4:M13)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
       </c>
       <c r="N15" s="4">
-        <f>M15 - SUM(N4:N13)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
       </c>
       <c r="O15" s="4">
-        <f>N15 - SUM(O4:O13)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
       </c>
       <c r="P15" s="4">
-        <f>O15 - SUM(P4:P13)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -2321,64 +2321,17 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>False</openByDefault>
+  <xsnScope/>
+</customXsn>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DocumentBusinessValueTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Normal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">581d4866-74cc-43f1-bef1-bb304cbfeaa5</TermId>
-        </TermInfo>
-      </Terms>
-    </DocumentBusinessValueTaxHTField0>
-    <DocumentComments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <DocumentDepartmentTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Academic Program and Course Development</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">59abafec-cbf5-4238-a796-a3b74278f4db</TermId>
-        </TermInfo>
-      </Terms>
-    </DocumentDepartmentTaxHTField0>
-    <DocumentCategoryTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentCategoryTaxHTField0>
-    <DocumentTypeTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentTypeTaxHTField0>
-    <TaxKeywordTaxHTField xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <CourseVersion xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd" xsi:nil="true"/>
-    <SecurityClassificationTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">98311b30-b9e9-4d4f-9f64-0688c0d4a234</TermId>
-        </TermInfo>
-      </Terms>
-    </SecurityClassificationTaxHTField0>
-    <TaxCatchAll xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <DocumentSubjectTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentSubjectTaxHTField0>
-    <DocumentStatusTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentStatusTaxHTField0>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2611,41 +2564,79 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DocumentBusinessValueTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Normal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">581d4866-74cc-43f1-bef1-bb304cbfeaa5</TermId>
+        </TermInfo>
+      </Terms>
+    </DocumentBusinessValueTaxHTField0>
+    <DocumentComments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <DocumentDepartmentTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Academic Program and Course Development</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">59abafec-cbf5-4238-a796-a3b74278f4db</TermId>
+        </TermInfo>
+      </Terms>
+    </DocumentDepartmentTaxHTField0>
+    <DocumentCategoryTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentCategoryTaxHTField0>
+    <DocumentTypeTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentTypeTaxHTField0>
+    <TaxKeywordTaxHTField xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <CourseVersion xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd" xsi:nil="true"/>
+    <SecurityClassificationTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">98311b30-b9e9-4d4f-9f64-0688c0d4a234</TermId>
+        </TermInfo>
+      </Terms>
+    </SecurityClassificationTaxHTField0>
+    <TaxCatchAll xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <DocumentSubjectTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentSubjectTaxHTField0>
+    <DocumentStatusTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentStatusTaxHTField0>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>False</openByDefault>
-  <xsnScope/>
-</customXsn>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B20B8EA-C8C4-49B1-8280-945BA6550F81}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14C1044-F523-4937-BF47-727729F19EA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2670,17 +2661,26 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14C1044-F523-4937-BF47-727729F19EA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B20B8EA-C8C4-49B1-8280-945BA6550F81}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/Scrum/Sprint2Burndown.xlsx
+++ b/Documentation/Scrum/Sprint2Burndown.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -177,6 +177,18 @@
     <t>Project Title: Minesweeper
 Release #: 1.1.0
 Sprint #: 2</t>
+  </si>
+  <si>
+    <t>As a user I would like to be able to play Minesweeper without the page refreshing</t>
+  </si>
+  <si>
+    <t>Use ajax for updating the page</t>
+  </si>
+  <si>
+    <t>As a user, I would like to have an individual Gameboard</t>
+  </si>
+  <si>
+    <t>Tie each GameBoard instance with userid</t>
   </si>
 </sst>
 </file>
@@ -233,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -256,11 +268,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -306,6 +355,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,15 +712,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>91018</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>159808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>167217</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>150283</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1068,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1153,9 @@
       <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="1"/>
@@ -1603,173 +1666,255 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="7">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="7">
+        <v>6</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="4">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="4">
         <f>SUM(F4:F13)</f>
         <v>15</v>
       </c>
-      <c r="G14" s="4">
-        <f t="shared" ref="G14:P14" si="0">F14-$F$14/10</f>
+      <c r="G17" s="4">
+        <f>F17-$F$17/10</f>
         <v>13.5</v>
       </c>
-      <c r="H14" s="4">
-        <f t="shared" si="0"/>
+      <c r="H17" s="4">
+        <f>G17-$F$17/10</f>
         <v>12</v>
       </c>
-      <c r="I14" s="4">
-        <f t="shared" si="0"/>
+      <c r="I17" s="4">
+        <f>H17-$F$17/10</f>
         <v>10.5</v>
       </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
+      <c r="J17" s="4">
+        <f>I17-$F$17/10</f>
         <v>9</v>
       </c>
-      <c r="K14" s="4">
-        <f t="shared" si="0"/>
+      <c r="K17" s="4">
+        <f>J17-$F$17/10</f>
         <v>7.5</v>
       </c>
-      <c r="L14" s="4">
-        <f t="shared" si="0"/>
+      <c r="L17" s="4">
+        <f>K17-$F$17/10</f>
         <v>6</v>
       </c>
-      <c r="M14" s="4">
-        <f t="shared" si="0"/>
+      <c r="M17" s="4">
+        <f>L17-$F$17/10</f>
         <v>4.5</v>
       </c>
-      <c r="N14" s="4">
-        <f t="shared" si="0"/>
+      <c r="N17" s="4">
+        <f>M17-$F$17/10</f>
         <v>3</v>
       </c>
-      <c r="O14" s="4">
-        <f t="shared" si="0"/>
+      <c r="O17" s="4">
+        <f>N17-$F$17/10</f>
         <v>1.5</v>
       </c>
-      <c r="P14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="12" t="s">
+      <c r="P17" s="4">
+        <f>O17-$F$17/10</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="4">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="4">
         <f>SUM(F4:F13)</f>
         <v>15</v>
       </c>
-      <c r="G15" s="4">
-        <f t="shared" ref="G15:P15" si="1">F15 - SUM(G4:G13)</f>
+      <c r="G18" s="4">
+        <f>F18 - SUM(G4:G13)</f>
         <v>14</v>
       </c>
-      <c r="H15" s="4">
-        <f t="shared" si="1"/>
+      <c r="H18" s="4">
+        <f>G18 - SUM(H4:H13)</f>
         <v>10</v>
       </c>
-      <c r="I15" s="4">
-        <f t="shared" si="1"/>
+      <c r="I18" s="4">
+        <f>H18 - SUM(I4:I13)</f>
         <v>7</v>
       </c>
-      <c r="J15" s="4">
-        <f t="shared" si="1"/>
+      <c r="J18" s="4">
+        <f>I18 - SUM(J4:J13)</f>
         <v>6</v>
       </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
+      <c r="K18" s="4">
+        <f>J18 - SUM(K4:K13)</f>
         <v>3</v>
       </c>
-      <c r="L15" s="4">
-        <f t="shared" si="1"/>
+      <c r="L18" s="4">
+        <f>K18 - SUM(L4:L13)</f>
         <v>0.5</v>
       </c>
-      <c r="M15" s="4">
-        <f t="shared" si="1"/>
+      <c r="M18" s="4">
+        <f>L18 - SUM(M4:M13)</f>
         <v>-0.5</v>
       </c>
-      <c r="N15" s="4">
-        <f t="shared" si="1"/>
+      <c r="N18" s="4">
+        <f>M18 - SUM(N4:N13)</f>
         <v>-0.5</v>
       </c>
-      <c r="O15" s="4">
-        <f t="shared" si="1"/>
+      <c r="O18" s="4">
+        <f>N18 - SUM(O4:O13)</f>
         <v>-1.5</v>
       </c>
-      <c r="P15" s="4">
-        <f t="shared" si="1"/>
+      <c r="P18" s="4">
+        <f>O18 - SUM(P4:P13)</f>
         <v>-1.5</v>
       </c>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
@@ -2155,8 +2300,8 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
